--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem2/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem2/67/incorrect_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+          <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>IMU calibration required</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-13</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,46 +487,46 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+          <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT</t>
+          <t>IMU calibration</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 1</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -537,21 +537,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Strong Interference Now Fly with caution .</t>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Strong Interference Now</t>
+          <t>Data Recorder File Index is 1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -562,46 +562,46 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Strong Interference Now Fly with caution .</t>
+          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Strong Interference</t>
+          <t>Hardware malfunction</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly Detach battery and reinstall it .</t>
+          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly</t>
+          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-22</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -612,21 +612,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear</t>
+          <t>Cannot Takeoff</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -637,46 +637,46 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing</t>
+          <t>Altitude Less than nnn</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cannot Takeoff</t>
+          <t>Compass Interference</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -687,174 +687,24 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Contact DJI support</t>
+          <t>Not suitable for shooting a 4K video</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>41</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Altitude Less than nnn</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0-3</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>41</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Cannot enable Follow Me Mode</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4-8</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>41</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Altitude Less than nnn Cannot enable Follow Me Mode</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0-8</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>42</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Compass Interference</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>42</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Temp Max Altitude 98ft</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2-5</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>45</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Not suitable for shooting a 4K video</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>7-13</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem2/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem2/67/incorrect_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IMU calibration required Calibrate IMU .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>IMU calibration required</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,46 +487,46 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IMU calibration required Calibrate IMU .</t>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>IMU calibration</t>
+          <t>RTH Altitude 98FT</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>Data Recorder File Index is 1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-13</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -537,21 +537,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+          <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 1</t>
+          <t>Strong Interference Now</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -562,46 +562,46 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
+          <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hardware malfunction</t>
+          <t>Strong Interference</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Battery installed incorrectly Detach battery and reinstall it .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Battery installed incorrectly</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-22</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -612,21 +612,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cannot Takeoff</t>
+          <t>Failed to lower or pack up landing gear</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -637,46 +637,46 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn</t>
+          <t>Failed to lower or pack up landing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Compass Interference</t>
+          <t>Cannot Takeoff</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -687,24 +687,174 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>30</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Contact DJI support</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4-6</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>41</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Altitude Less than nnn</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0-3</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>41</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Cannot enable Follow Me Mode</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4-8</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>41</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Altitude Less than nnn Cannot enable Follow Me Mode</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0-8</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>42</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Compass Interference</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0-1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Temp Max Altitude 98ft</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2-5</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
         <v>45</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Not suitable for shooting a 4K video</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>7-13</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
